--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_moz.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_moz.xlsx
@@ -1159,99 +1159,117 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.346264249578677</v>
+        <v>0.466011666436898</v>
       </c>
       <c r="C2">
-        <v>0.333499261685768</v>
+        <v>0.456680770249428</v>
       </c>
       <c r="D2">
-        <v>0.331199360589182</v>
+        <v>0.456079468116145</v>
       </c>
       <c r="E2">
-        <v>0.326818426198816</v>
+        <v>0.450212731804315</v>
       </c>
       <c r="F2">
-        <v>0.322025920542951</v>
+        <v>0.442466213513305</v>
       </c>
       <c r="G2">
-        <v>0.316408222138304</v>
+        <v>0.4340388929973</v>
       </c>
       <c r="H2">
-        <v>0.312257742094391</v>
+        <v>0.427867607852898</v>
       </c>
       <c r="I2">
-        <v>0.311649558020124</v>
+        <v>0.426609696377719</v>
       </c>
       <c r="J2">
-        <v>0.311212994834279</v>
+        <v>0.424885562625075</v>
       </c>
       <c r="K2">
-        <v>0.310785631380306</v>
+        <v>0.424113411656751</v>
       </c>
       <c r="L2">
-        <v>0.310373802548303</v>
+        <v>0.422185518274184</v>
       </c>
       <c r="M2">
-        <v>0.314304186917884</v>
+        <v>0.427183409392647</v>
       </c>
       <c r="N2">
-        <v>0.317879191261886</v>
+        <v>0.430995358346283</v>
       </c>
       <c r="O2">
-        <v>0.321196041858306</v>
+        <v>0.433864421217018</v>
       </c>
       <c r="P2">
-        <v>0.323556738535803</v>
+        <v>0.432995714853543</v>
       </c>
       <c r="Q2">
-        <v>0.325687480395443</v>
+        <v>0.433383260709933</v>
       </c>
       <c r="R2">
-        <v>0.327606413180995</v>
+        <v>0.430728262677842</v>
       </c>
       <c r="S2">
-        <v>0.329360609177848</v>
+        <v>0.429504610937687</v>
       </c>
       <c r="T2">
-        <v>0.330003596265471</v>
+        <v>0.426311474521669</v>
       </c>
       <c r="U2">
-        <v>0.330671410750095</v>
+        <v>0.422453863900898</v>
       </c>
       <c r="V2">
-        <v>0.328629365439989</v>
+        <v>0.418567064204723</v>
       </c>
       <c r="W2">
-        <v>0.326729663402744</v>
+        <v>0.414590092695991</v>
       </c>
       <c r="X2">
-        <v>0.324654501182671</v>
+        <v>0.41057313494326</v>
       </c>
       <c r="Y2">
-        <v>0.3228027230427</v>
+        <v>0.405925986873387</v>
       </c>
       <c r="Z2">
-        <v>0.323555742247289</v>
+        <v>0.40176099289445</v>
       </c>
       <c r="AA2">
-        <v>0.324268992377624</v>
+        <v>0.397642297304731</v>
       </c>
       <c r="AB2">
-        <v>0.324799891989969</v>
+        <v>0.393358403609839</v>
       </c>
       <c r="AC2">
-        <v>0.325123481796123</v>
+        <v>0.388838482446865</v>
       </c>
       <c r="AD2">
-        <v>0.334869584395472</v>
+        <v>0.384248287605921</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.383626384261234</v>
+        <v>0.343475044020106</v>
+      </c>
+      <c r="Q3">
+        <v>0.0711818240600487</v>
+      </c>
+      <c r="V3">
+        <v>0.0181753638743758</v>
+      </c>
+      <c r="W3">
+        <v>0.0148365548689072</v>
+      </c>
+      <c r="AB3">
+        <v>0.0102004023921102</v>
+      </c>
+      <c r="AC3">
+        <v>0.00858258607661876</v>
+      </c>
+      <c r="AD3">
+        <v>0.0229619762983174</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1259,22 +1277,64 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.345052947166799</v>
+        <v>0.308938803689473</v>
+      </c>
+      <c r="C4">
+        <v>0.323364956255565</v>
+      </c>
+      <c r="D4">
+        <v>0.32974694211771</v>
+      </c>
+      <c r="E4">
+        <v>0.340325068038521</v>
+      </c>
+      <c r="F4">
+        <v>0.0793231825598023</v>
+      </c>
+      <c r="O4">
+        <v>0.296112995406606</v>
+      </c>
+      <c r="Q4">
+        <v>0.276775559370401</v>
+      </c>
+      <c r="R4">
+        <v>0.116128279917977</v>
+      </c>
+      <c r="S4">
+        <v>0.118371933578512</v>
+      </c>
+      <c r="T4">
+        <v>0.258521194052241</v>
       </c>
       <c r="U4">
-        <v>0.270299041761579</v>
+        <v>0.254939847413699</v>
       </c>
       <c r="V4">
-        <v>0.265871359544233</v>
+        <v>0.251529383565586</v>
       </c>
       <c r="W4">
-        <v>0.261477861142652</v>
+        <v>0.248302117599934</v>
       </c>
       <c r="X4">
-        <v>0.257878980782271</v>
+        <v>0.245709924664504</v>
+      </c>
+      <c r="Y4">
+        <v>0.243443940993531</v>
+      </c>
+      <c r="Z4">
+        <v>0.240985874954607</v>
+      </c>
+      <c r="AA4">
+        <v>0.238563861473429</v>
+      </c>
+      <c r="AB4">
+        <v>0.236525468615806</v>
+      </c>
+      <c r="AC4">
+        <v>0.234946496527321</v>
       </c>
       <c r="AD4">
-        <v>0.22254530569622</v>
+        <v>0.233699645777547</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1282,91 +1342,91 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>0.220318157873539</v>
+        <v>0.290446005933418</v>
       </c>
       <c r="C5">
-        <v>0.497406192298794</v>
+        <v>0.619689931203499</v>
       </c>
       <c r="D5">
-        <v>0.461387642534423</v>
+        <v>0.613544051171639</v>
       </c>
       <c r="E5">
-        <v>0.425070236167135</v>
+        <v>0.603155491396778</v>
       </c>
       <c r="F5">
-        <v>0.392587486331287</v>
+        <v>0.702409780344981</v>
       </c>
       <c r="G5">
-        <v>0.366428302340591</v>
+        <v>0.768592504193345</v>
       </c>
       <c r="H5">
-        <v>0.345087918044532</v>
+        <v>0.763231159535586</v>
       </c>
       <c r="I5">
-        <v>0.326961101803001</v>
+        <v>0.755684157605122</v>
       </c>
       <c r="J5">
-        <v>0.312068149008164</v>
+        <v>0.944234707647067</v>
       </c>
       <c r="K5">
-        <v>0.302215038014163</v>
+        <v>0.89059342057946</v>
       </c>
       <c r="L5">
-        <v>0.294428963391077</v>
+        <v>0.944485802713562</v>
       </c>
       <c r="M5">
-        <v>0.288115546451055</v>
+        <v>0.944616526398154</v>
       </c>
       <c r="N5">
-        <v>0.283778256392614</v>
+        <v>0.944731695434231</v>
       </c>
       <c r="O5">
-        <v>0.279942906829778</v>
+        <v>0.648721087779792</v>
       </c>
       <c r="P5">
-        <v>0.277341336729404</v>
+        <v>0.950928034954686</v>
       </c>
       <c r="Q5">
-        <v>0.275492478680626</v>
+        <v>0.52298307743562</v>
       </c>
       <c r="R5">
-        <v>0.274107054034585</v>
+        <v>0.827085399472142</v>
       </c>
       <c r="S5">
-        <v>0.273087205341477</v>
+        <v>0.812933222276767</v>
       </c>
       <c r="T5">
-        <v>0.272354212957589</v>
+        <v>0.686668450408884</v>
       </c>
       <c r="U5">
-        <v>0.194555597173048</v>
+        <v>0.690301395215023</v>
       </c>
       <c r="V5">
-        <v>0.19533892048911</v>
+        <v>0.675584394573555</v>
       </c>
       <c r="W5">
-        <v>0.196284898778181</v>
+        <v>0.769506889507111</v>
       </c>
       <c r="X5">
-        <v>0.196754004310227</v>
+        <v>0.604388349399515</v>
       </c>
       <c r="Y5">
-        <v>0.270720215677191</v>
+        <v>0.701968195015868</v>
       </c>
       <c r="Z5">
-        <v>0.270507545509953</v>
+        <v>0.704461812810962</v>
       </c>
       <c r="AA5">
-        <v>0.27056958532304</v>
+        <v>0.706917029134513</v>
       </c>
       <c r="AB5">
-        <v>0.270377671789214</v>
+        <v>0.698785775628617</v>
       </c>
       <c r="AC5">
-        <v>0.57651604400573</v>
+        <v>0.723098463074194</v>
       </c>
       <c r="AD5">
-        <v>0.175341479798405</v>
+        <v>0.472744835221853</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1374,91 +1434,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>1.00299748930157</v>
+        <v>0.996859853642997</v>
       </c>
       <c r="C6">
-        <v>0.551406192298794</v>
+        <v>0.997054887459064</v>
       </c>
       <c r="D6">
-        <v>0.515387642534423</v>
+        <v>0.997290993289349</v>
       </c>
       <c r="E6">
-        <v>0.479070236167135</v>
+        <v>0.997480559435299</v>
       </c>
       <c r="F6">
-        <v>0.446587486331287</v>
+        <v>0.835732962904783</v>
       </c>
       <c r="G6">
-        <v>0.420428302340591</v>
+        <v>0.822592504193345</v>
       </c>
       <c r="H6">
-        <v>0.399087918044532</v>
+        <v>0.817231159535586</v>
       </c>
       <c r="I6">
-        <v>0.380961101803001</v>
+        <v>0.809684157605122</v>
       </c>
       <c r="J6">
-        <v>0.366068149008164</v>
+        <v>0.998234707647067</v>
       </c>
       <c r="K6">
-        <v>0.356215038014163</v>
+        <v>0.944593420579459</v>
       </c>
       <c r="L6">
-        <v>0.348428963391077</v>
+        <v>0.998485802713562</v>
       </c>
       <c r="M6">
-        <v>0.342115546451055</v>
+        <v>0.998616526398154</v>
       </c>
       <c r="N6">
-        <v>0.337778256392614</v>
+        <v>0.998731695434231</v>
       </c>
       <c r="O6">
-        <v>0.333942906829778</v>
+        <v>0.998834083186398</v>
       </c>
       <c r="P6">
-        <v>0.331341336729404</v>
+        <v>1.00492803495469</v>
       </c>
       <c r="Q6">
-        <v>0.329492478680626</v>
+        <v>0.92494046086607</v>
       </c>
       <c r="R6">
-        <v>0.328107054034585</v>
+        <v>0.997213679390119</v>
       </c>
       <c r="S6">
-        <v>0.327087205341477</v>
+        <v>0.985305155855279</v>
       </c>
       <c r="T6">
-        <v>0.326354212957589</v>
+        <v>0.999189644461126</v>
       </c>
       <c r="U6">
-        <v>0.518854638934627</v>
+        <v>0.999241242628722</v>
       </c>
       <c r="V6">
-        <v>0.515210280033344</v>
+        <v>0.999289142013516</v>
       </c>
       <c r="W6">
-        <v>0.511762759920832</v>
+        <v>1.08664556197595</v>
       </c>
       <c r="X6">
-        <v>0.508632985092498</v>
+        <v>0.904098274064019</v>
       </c>
       <c r="Y6">
-        <v>0.324720215677191</v>
+        <v>0.999412136009399</v>
       </c>
       <c r="Z6">
-        <v>0.324507545509953</v>
+        <v>0.999447687765569</v>
       </c>
       <c r="AA6">
-        <v>0.32456958532304</v>
+        <v>0.999480890607941</v>
       </c>
       <c r="AB6">
-        <v>0.324377671789214</v>
+        <v>0.999511646636532</v>
       </c>
       <c r="AC6">
-        <v>0.63051604400573</v>
+        <v>1.02062754567813</v>
       </c>
       <c r="AD6">
-        <v>0.451886785494628</v>
+        <v>0.783406457297721</v>
       </c>
     </row>
   </sheetData>
